--- a/excels/cytokine_signaling_jak_stat_and_review_or_systemat_resultados.xlsx
+++ b/excels/cytokine_signaling_jak_stat_and_review_or_systemat_resultados.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Search Results" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Search Results'!$A$11:$I$20</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Search Results'!$A$11:$I$21</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -415,7 +415,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,7 +454,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-07-09</t>
+          <t>2025-07-11</t>
         </is>
       </c>
     </row>
@@ -492,8 +492,7 @@
     • Studies published in English, peer-reviewed journals
     • About leptin and Alzheimer’s
     • Relevant papers available as full text
-    • Publications in English
-    • Review papers
+    • Randomized control trials 
     </t>
         </is>
       </c>
@@ -506,7 +505,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>20% of total quota selected for tranche</t>
+          <t>40% of total quota selected for tranche</t>
         </is>
       </c>
     </row>
@@ -518,7 +517,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Narrative review or systematic review</t>
+          <t>Randomized control trials</t>
         </is>
       </c>
     </row>
@@ -604,32 +603,32 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Role of Extracellular Vesicles in Severe Dengue: Virus-Host Interactions and Biomarker Potential.</t>
+          <t>Evolving cognition of the JAK-STAT signaling pathway: autoimmune disorders and cancer.</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2025</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Agudelo JSH, Pereira G, Fernandes CJDC</t>
+          <t>Xue C, Yao Q, Gu X, Shi Q, Yuan X, Chu Q, Bao Z, Lu J, Li L</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Viruses</t>
+          <t>Signal transduction and targeted therapy</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Viruses</t>
+          <t>Signal Transduct Target Ther</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Severe dengue is a global health threat, affecting 4 billion people, with nearly 1 million hospitalizations during epidemics and around 25,000 annual deaths. Severe dengue presentations are characterized by vascular leakage, hemorrhagic manifestations, and shock, which can lead to multiorgan failure. Recent studies highlight the crucial role of extracellular vesicles (EVs) in the pathogenesis of dengue, influencing immune response and disease progression. EVs, nanometric structures secreted by cells, mediate viral dissemination, immune modulation, and endothelial dysfunction by transporting biomolecules such as microRNAs (miRNAs) and viral proteins. Infected cell-derived EVs carry viral components, including NS protein and miRNAs like miR-21 and miR-126-5p, which compromise endothelial integrity and activate immune pathways such as Toll-like receptor, NF-κB, and JAK-STAT signaling. This, together with the immune response, leads to the release of pro-inflammatory cytokines, including TNF-α, IL-1β, IL-6, and IFN-γ. EVs also facilitate viral immune evasion by suppressing antiviral responses. Recent analyses of miRNAs within EVs suggest their potential as biomarkers for disease progression. Differentially expressed miRNAs in circulating EVs correlate with severe outcomes, providing tools for risk stratification and therapeutic monitoring. Advanced techniques, such as nanoparticle tracking analysis and flow cytometry, allow precise EV characterization, supporting their integration into clinical applications.</t>
+          <t>The Janus kinase (JAK) signal transducer and activator of transcription (JAK-STAT) pathway is an evolutionarily conserved mechanism of transmembrane signal transduction that enables cells to communicate with the exterior environment. Various cytokines, interferons, growth factors, and other specific molecules activate JAK-STAT signaling to drive a series of physiological and pathological processes, including proliferation, metabolism, immune response, inflammation, and malignancy. Dysregulated JAK-STAT signaling and related genetic mutations are strongly associated with immune activation and cancer progression. Insights into the structures and functions of the JAK-STAT pathway have led to the development and approval of diverse drugs for the clinical treatment of diseases. Currently, drugs have been developed to mainly target the JAK-STAT pathway and are commonly divided into three subtypes: cytokine or receptor antibodies, JAK inhibitors, and STAT inhibitors. And novel agents also continue to be developed and tested in preclinical and clinical studies. The effectiveness and safety of each kind of drug also warrant further scientific trials before put into being clinical applications. Here, we review the current understanding of the fundamental composition and function of the JAK-STAT signaling pathway. We also discuss advancements in the understanding of JAK-STAT-related pathogenic mechanisms; targeted JAK-STAT therapies for various diseases, especially immune disorders, and cancers; newly developed JAK inhibitors; and current challenges and directions in the field.</t>
         </is>
       </c>
       <c r="H12" t="inlineStr"/>
@@ -641,32 +640,32 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Finetuning Type I Interferon Signaling to Enhance T Cell Immunity in HIV Infection.</t>
+          <t>The role of JAK/STAT signaling pathway and its inhibitors in diseases.</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2025</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Mu W, Kedia N, Zhen A</t>
+          <t>Xin P, Xu X, Deng C, Liu S, Wang Y, Zhou X, Ma H, Wei D, Sun S</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Viruses</t>
+          <t>International immunopharmacology</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Viruses</t>
+          <t>Int Immunopharmacol</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Type I interferons (IFN-Is) play a dual role in the immune response to HIV-1, providing early antiviral defense while driving immune dysfunction in the chronic phase. During acute infection, robust IFN signaling is critical in controlling viral replication, activating innate immunity, and limiting reservoir establishment. However, sustained IFN-I activation during chronic infection fuels systemic inflammation, immune exhaustion, and fibrosis, particularly in lymphoid tissues such as gut-associated lymphoid tissue (GALT). Prolonged IFN-I exposure upregulates inhibitory receptors on T cells, impairs metabolic fitness, and fosters an immunosuppressive cytokine milieu that weakens overall immune responses. In contrast to natural SIV (Simian immunodeficiency virus) hosts, IFN-I responses are tightly regulated to prevent chronic immune activation and tissue damage. However, humans and non-natural hosts experience persistent Interferon Stimulated Gene (ISG) expression and IFN-I driven inflammation. Emerging therapeutic strategies seek to harness the antiviral benefits of IFN-I while mitigating its pathogenic effects. Approaches such as the IFNAR blockade, autophagy induction, JAK-STAT inhibition, and combined immune inhibitory blockade therapy show promise in restoring immune balance and enhancing T cell function. This review examines the mechanisms of IFN-I dysregulation in chronic HIV-1 infection and highlights novel interventions aimed at finetuning IFN-I signaling for therapeutic benefit.</t>
+          <t>The JAK/STAT signaling pathway is an universally expressed intracellular signal transduction pathway and involved in many crucial biological processes, including cell proliferation, differentiation, apoptosis, and immune regulation. It provides a direct mechanism for extracellular factors-regulated gene expression. Current researches on this pathway have been focusing on the inflammatory and neoplastic diseases and related drug. The mechanism of JAK/STAT signaling is relatively simple. However, the biological consequences of the pathway are complicated due to its crosstalk with other signaling pathways. In addition, there is increasing evidence indicates that the persistent activation of JAK/STAT signaling pathway is closely related to many immune and inflammatory diseases, yet the specific mechanism remains unclear. Therefore, it is necessary to study the detailed mechanisms of JAK/STAT signaling in disease formation to provide critical reference for clinical treatments of the diseases. In this review, we focus on the structure of JAKs and STATs, the JAK/STAT signaling pathway and its negative regulators, the associated diseases, and the JAK inhibitors for the clinical therapy.</t>
         </is>
       </c>
       <c r="H13" t="inlineStr"/>
@@ -678,32 +677,32 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Ferulic Acid as an Anti-Inflammatory Agent: Insights into Molecular Mechanisms, Pharmacokinetics and Applications.</t>
+          <t>The JAK-STAT pathway at 30: Much learned, much more to do.</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2025</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Liu J, Guan Y, Yang L, Fang H, Sun H, Sun Y, Yan G, Kong L, Wang X</t>
+          <t>Philips RL, Wang Y, Cheon H, Kanno Y, Gadina M, Sartorelli V, Horvath CM, Darnell JE, Stark GR, O'Shea JJ</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Pharmaceuticals (Basel, Switzerland)</t>
+          <t>Cell</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Pharmaceuticals (Basel)</t>
+          <t>Cell</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Ferulic acid (FA), a hydroxycinnamic acid derivative, is a key bioactive component in traditional medicinal plants including &lt;i&gt;Angelica sinensis&lt;/i&gt; and &lt;i&gt;Asafoetida&lt;/i&gt;. Accumulating evidence supports its therapeutic efficacy in inflammatory disorders, such as rheumatoid arthritis (RA) and ulcerative colitis (UC). FA exerts anti-inflammatory effects through (1) the regulation of inflammatory cytokine levels; (2) modulation of signaling pathways such as nuclear factor kappa B (NF-κB), mitogen-activated protein kinase (MAPK), and janus kinase/signal transducer and activator of transcription (JAK/STAT); (3) amelioration of oxidative stress; and (4) regulation of immune cell homeostasis. At the pharmacokinetic level, studies show that FA is rapidly absorbed but exhibits low bioavailability, mainly due to the influence of metabolic pathways and food matrix characteristics. This review systematically summarizes the literature on the anti-inflammatory effects of FA, covering molecular mechanisms, pharmacokinetic characteristics, and application scenarios. Preclinical studies show that FA has low toxicity and good safety, demonstrating potential for development as a novel anti-inflammatory drug. However, its clinical translation is hindered by bottlenecks such as low bioavailability and insufficient human clinical data. Future research should prioritize developing novel drug delivery systems and conducting large-scale clinical trials to facilitate its clinical translation.</t>
+          <t>The discovery of the Janus kinase (JAK)-signal transducer and activator of transcription (STAT) pathway arose from investigations of how cells respond to interferons (IFNs), revealing a paradigm in cell signaling conserved from slime molds to mammals. These discoveries revealed mechanisms underlying rapid gene expression mediated by a wide variety of extracellular polypeptides including cytokines, interleukins, and related factors. This knowledge has provided numerous insights into human disease, from immune deficiencies to cancer, and was rapidly translated to new drugs for autoimmune, allergic, and infectious diseases, including COVID-19. Despite these advances, major challenges and opportunities remain.</t>
         </is>
       </c>
       <c r="H14" t="inlineStr"/>
@@ -715,32 +714,32 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Use of JAK Inhibitors in Lichen Planus: An Update.</t>
+          <t>JAK-STAT signaling pathway in the pathogenesis of atopic dermatitis: An updated review.</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2025</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Didona D, Caposiena Caro RD, Calabrese L, D'Onghia M, Galluccio G, Di Nicola MR, Rallo A, Paolino G</t>
+          <t>Huang IH, Chung WH, Wu PC, Chen CB</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Medicina (Kaunas, Lithuania)</t>
+          <t>Frontiers in immunology</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Medicina (Kaunas)</t>
+          <t>Front Immunol</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Lichen planus (LP) is a chronic inflammatory disorder affecting approximately 1% of the population. It presents with a wide range of clinical manifestations, mainly involving the skin, mucosal surfaces, and skin appendages, and is often characterized by a relapsing course and variable response to treatment. Although several therapeutic strategies are available, many are off-label and show limited efficacy in resistant forms. Increasing evidence points to the central role of the JAK/STAT signaling pathway in the immunopathogenesis of LP, with cytokines such as interferon-gamma and interleukin-21 playing key roles in sustaining chronic inflammation. Based on this rationale, Janus kinase (JAK) inhibitors have recently been proposed as potential therapeutic agents in LP. This review explores the biological basis for their use and systematically summarizes the existing clinical evidence on the use of JAK inhibitors in cutaneous, mucosal, appendageal, and nail variants of LP. The preliminary data suggests favorable outcomes in many patients with difficult-to-treat disease, with an acceptable safety profile. Further prospective trials are needed to establish their definitive role in the management of LP.</t>
+          <t>Atopic dermatitis (AD) is a chronic, inflammatory, pruritic form of dermatosis with heterogeneous manifestations that can substantially affect patients' quality of life. AD has a complex pathogenesis, making treatment challenging for dermatologists. The Janus kinase (JAK)-signal transducer and activator of transcription (STAT) pathway plays a central role in modulating multiple immune axes involved in the immunopathogenesis of AD. In particular, Th2 cytokines, including interleukin (IL)-4, IL-5, IL-13, IL-31, and thymic stromal lymphopoietin, which contribute to the symptoms of chronic inflammation and pruritus in AD, are mediated by JAK-STAT signal transduction. Furthermore, JAK-STAT is involved in the regulation of the epidermal barrier and the modulation of peripheral nerves related to the transduction of pruritus. Targeting the JAK-STAT pathway may attenuate these signals and show clinical efficacy through the suppression of various immune pathways associated with AD. Topical and oral JAK inhibitors with variable selectivity have emerged as promising therapeutic options for AD. Notably, topical ruxolitinib, oral upadacitinib, and oral abrocitinib were approved by the U.S. Food and Drug Administration for treating patients with AD. Accordingly, the present study reviewed the role of JAK-STAT pathways in the pathogenesis of AD and explored updated applications of JAK inhibitors in treating AD.</t>
         </is>
       </c>
       <c r="H15" t="inlineStr"/>
@@ -752,32 +751,32 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Advancing Therapeutic Strategies in Atopic Dermatitis: Emerging Targets and Personalized Approaches.</t>
+          <t>The molecular details of cytokine signaling via the JAK/STAT pathway.</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2025</t>
+          <t>2018</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Lo Y, Cheng TT, Huang CJ, Cheng YC, Chyuan IT</t>
+          <t>Morris R, Kershaw NJ, Babon JJ</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Biomolecules</t>
+          <t>Protein science : a publication of the Protein Society</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Biomolecules</t>
+          <t>Protein Sci</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Atopic dermatitis (AD) is a chronic inflammatory skin disorder marked by intricate interplay among skin barrier dysfunction, immune dysregulation, and microbial dysbiosis. While therapeutic advancements targeting T helper 2 (Th2) cytokines, such as interleukin (IL)-4 and IL-13, and the Janus kinase/signal transducer and activator of transcription (JAK/STAT) pathway have yielded promising outcomes, a significant proportion of patients still experience inadequate relief, particularly from persistent pruritus. Achieving minimal disease activity remains an unmet clinical priority and a cornerstone of effective AD management. This review provides an in-depth analysis of current therapeutic approaches and integrates findings from recent biologic studies, with a particular focus on innovative strategies under active investigation. These approaches include targeting components of the innate immune system, such as thymic stromal lymphopoietin (TSLP) and IL-1 family cytokines; the adaptive immune system, including OX40-OX40L interactions and Th17- and Th22-related cytokines; and mechanisms associated with pruritus, such as IL-31, histamine receptors, and neurokinin 1 receptor. Emerging insights underscore the transformative potential of personalized therapeutic regimens tailored to the distinct endotypes and severity of AD. Advances in deciphering the pathogenesis of AD are unlocking unprecedented opportunities for precision medicine, offering renewed hope for improved outcomes in this multifaceted and heterogeneous condition.</t>
+          <t>More than 50 cytokines signal via the JAK/STAT pathway to orchestrate hematopoiesis, induce inflammation and control the immune response. Cytokines are secreted glycoproteins that act as intercellular messengers, inducing proliferation, differentiation, growth, or apoptosis of their target cells. They act by binding to specific receptors on the surface of target cells and switching on a phosphotyrosine-based intracellular signaling cascade initiated by kinases then propagated and effected by SH2 domain-containing transcription factors. As cytokine signaling is proliferative and often inflammatory, it is tightly regulated in terms of both amplitude and duration. Here we review molecular details of the cytokine-induced signaling cascade and describe the architectures of the proteins involved, including the receptors, kinases, and transcription factors that initiate and propagate signaling and the regulatory proteins that control it.</t>
         </is>
       </c>
       <c r="H16" t="inlineStr"/>
@@ -789,32 +788,32 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Janus kinase and signal transducer and activator of transcription inhibitors in type 1 diabetes and immune checkpoint-related diabetes: current status and future perspectives.</t>
+          <t>Pathogenetic insights from the treatment of rheumatoid arthritis.</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2025</t>
+          <t>2017</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Su B, Luan ZL, Liu H, Tuomilehto J, Ji X</t>
+          <t>McInnes IB, Schett G</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Frontiers in immunology</t>
+          <t>Lancet (London, England)</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Front Immunol</t>
+          <t>Lancet</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Type 1 diabetes (T1D) is an autoimmune-mediated disorder that leads to the destruction of pancreatic beta-cells, insulin deficiency, and chronic hyperglycemia. It is one of the most common childhood endocrine disorders. Recent evidence indicates that aberrant Janus kinase-signal transducer and activator of transcription (JAK/STAT) signaling exacerbates T1D by promoting the production of proinflammatory cytokines and chemokines. By blocking JAK-mediated phosphorylation of STAT proteins, JAK inhibitors help alleviate cytokine-driven inflammation, reduce insulin requirements, and relieve complications such as painful peripheral neuropathy, potentially preserving residual beta-cell function and improving glycemic control. Moreover, emerging data underscore the potential synergy between JAK inhibitors and immune checkpoint therapies targeting the programmed cell death protein 1 (PD-1) pathway, as PD-1/Programmed cell death ligand 1 (PD-L1) inhibitors used in antitumor therapy can induce immune checkpoint inhibitor-induced diabetes (CPI-DM). This review examines the impact of JAK inhibitors on beta-cells and immune cells in T1D, along with their safety profiles and adverse effects. It explores the potential benefits and risks of combining JAK inhibitors in the management of CPI-DM associated with anti-PD-1/PD-L1 therapy. In conclusion, while JAK inhibitors have demonstrated the potential to reduce inflammation and preserve beta-cell function in preclinical studies, further clinical trials are needed to confirm their long-term safety and efficacy in patients with T1D and CPI-DM.</t>
+          <t>Rheumatoid arthritis is a chronic autoimmune disease that causes progressive articular damage, functional loss, and comorbidity. The development of effective biologics and small-molecule kinase inhibitors in the past two decades has substantially improved clinical outcomes. Just as understanding of pathogenesis has led in large part to the development of drugs, so have mode-of-action studies of these specific immune-targeted agents revealed which immune pathways drive articular inflammation and related comorbidities. Cytokine inhibitors have definitively proven a critical role for tumour necrosis factor α and interleukin 6 in disease pathogenesis and possibly also for granulocyte-macrophage colony-stimulating factor. More recently, clinical trials with Janus kinase (JAK) inhibitors have shown that cytokine receptors that signal through the JAK/STAT signalling pathway are important for disease, informing the pathogenetic function of additional cytokines (such as the interferons). Finally, successful use of costimulatory blockade and B-cell depletion in the clinic has revealed that the adaptive immune response and the downstream events initiated by these cells participate directly in synovial inflammation. Taken together, it becomes apparent that understanding the effects of specific immune interventions can elucidate definitive molecular or cellular nodes that are essential to maintain complex inflammatory networks that subserve diseases like rheumatoid arthritis.</t>
         </is>
       </c>
       <c r="H17" t="inlineStr"/>
@@ -826,32 +825,32 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Anti-Inflammatory Activity of Thymol and Thymol-Rich Essential Oils: Mechanisms, Applications, and Recent Findings.</t>
+          <t>Principles of interleukin (IL)-6-type cytokine signalling and its regulation.</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2025</t>
+          <t>2003</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Gago C, Serralheiro A, Miguel MDG</t>
+          <t>Heinrich PC, Behrmann I, Haan S, Hermanns HM, Müller-Newen G, Schaper F</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Molecules (Basel, Switzerland)</t>
+          <t>The Biochemical journal</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Molecules</t>
+          <t>Biochem J</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Thymol, a monoterpenoid phenol present in the essential oils of several aromatic plants, has attracted considerable attention for its anti-inflammatory effects, often in combination with other bioactive compounds. This work explores the mechanisms behind the anti-inflammatory activity of thymol and thymol-rich essential oils, summarizing recent experimental findings. Inflammation, a key factor in numerous chronic diseases, can be modulated by targeting essential molecular pathways, such as MAPK, NF-&lt;i&gt;κ&lt;/i&gt;B, JAK/STAT, and arachidonic acid signaling. Thymol has been shown to influence these pathways, reducing the production of pro-inflammatory cytokines and mediators. Beyond its anti-inflammatory effects, thymol also exhibits a broad range of biological activities, including antimicrobial, antioxidant, and anticancer properties. The applications of thymol and thymol-containing essential oils in therapeutic formulations, food additives, and veterinary medicine are also reviewed. Despite promising preclinical results, challenges such as low bioavailability and toxicity at high doses limit their clinical use. Recent developments in drug delivery systems, such as encapsulation in micro- and nanoparticles, are suggested as strategies to enhance efficacy. Additionally, the synergistic effects of thymol with other natural products are examined, offering the potential for improved therapeutic outcomes.</t>
+          <t>The IL (interleukin)-6-type cytokines IL-6, IL-11, LIF (leukaemia inhibitory factor), OSM (oncostatin M), ciliary neurotrophic factor, cardiotrophin-1 and cardiotrophin-like cytokine are an important family of mediators involved in the regulation of the acute-phase response to injury and infection. Besides their functions in inflammation and the immune response, these cytokines play also a crucial role in haematopoiesis, liver and neuronal regeneration, embryonal development and fertility. Dysregulation of IL-6-type cytokine signalling contributes to the onset and maintenance of several diseases, such as rheumatoid arthritis, inflammatory bowel disease, osteoporosis, multiple sclerosis and various types of cancer (e.g. multiple myeloma and prostate cancer). IL-6-type cytokines exert their action via the signal transducers gp (glycoprotein) 130, LIF receptor and OSM receptor leading to the activation of the JAK/STAT (Janus kinase/signal transducer and activator of transcription) and MAPK (mitogen-activated protein kinase) cascades. This review focuses on recent progress in the understanding of the molecular mechanisms of IL-6-type cytokine signal transduction. Emphasis is put on the termination and modulation of the JAK/STAT signalling pathway mediated by tyrosine phosphatases, the SOCS (suppressor of cytokine signalling) feedback inhibitors and PIAS (protein inhibitor of activated STAT) proteins. Also the cross-talk between the JAK/STAT pathway with other signalling cascades is discussed.</t>
         </is>
       </c>
       <c r="H18" t="inlineStr"/>
@@ -863,32 +862,32 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Inflammatory signaling pathways in neutrophils: implications for breast cancer therapy.</t>
+          <t>JAK-STAT pathway targeting for the treatment of inflammatory bowel disease.</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2025</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Obeagu EI, Rizvi SAA</t>
+          <t>Salas A, Hernandez-Rocha C, Duijvestein M, Faubion W, McGovern D, Vermeire S, Vetrano S, Vande Casteele N</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Annals of medicine and surgery (2012)</t>
+          <t>Nature reviews. Gastroenterology &amp; hepatology</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Ann Med Surg (Lond)</t>
+          <t>Nat Rev Gastroenterol Hepatol</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Neutrophils, key components of the innate immune system, have emerged as pivotal players in the tumor microenvironment (TME), particularly in breast cancer. These versatile cells contribute to both pro-tumorigenic and anti-tumorigenic processes through inflammatory signaling pathways that influence tumor progression, immune evasion, and therapeutic responses. Their recruitment to the TME, mediated by chemokines such as CXCL1 and CXCL8, and their subsequent activation underscore their complex role in breast cancer biology. Neutrophil extracellular traps, cytokine secretion, and reactive oxygen species production further highlight their dualistic nature in cancer pathophysiology. Critical inflammatory signaling pathways, including nuclear factor kappa-light-chain-enhancer of activated B cells (NF-κB), Janus kinase/signal transducer and activator of transcription (JAK/STAT), mitogen-activated protein kinase (MAPK), and phosphatidylinositol 3-kinase (PI3K)/AKT, regulate neutrophil activity in breast cancer. Dysregulation of these pathways can lead to the promotion of angiogenesis, immune suppression, and metastasis. For example, the NF-κB pathway fosters the secretion of pro-inflammatory cytokines, while JAK/STAT signaling drives the differentiation of tumor-associated neutrophils. The MAPK and PI3K/AKT pathways influence neutrophil survival and chemotactic responses, further enhancing their contribution to the tumor-supportive microenvironment. Understanding these mechanisms provides a framework for therapeutic intervention.</t>
+          <t>Cytokines are involved in intestinal homeostasis and pathological processes associated with inflammatory bowel disease (IBD). The biological effects of cytokines, including several involved in the pathology of Crohn's disease and ulcerative colitis, occur as a result of receptor-mediated signalling through the Janus kinase (JAK) and signal transducer and activator of transcription (STAT) DNA-binding families of proteins. Although therapies targeting cytokines have revolutionized IBD therapy, they have historically targeted individual cytokines, and an unmet medical need exists for patients who do not respond to or lose response to these treatments. Several small-molecule inhibitors of JAKs that have the potential to affect multiple pro-inflammatory cytokine-dependent pathways are in clinical development for the treatment of IBD, with one agent, tofacitinib, already approved for ulcerative colitis and several other agents with demonstrated efficacy in early phase trials. This Review describes the current understanding of JAK-STAT signalling in intestinal homeostasis and disease and the rationale for targeting this pathway as a treatment for IBD. The available evidence for the efficacy, safety and pharmacokinetics of JAK inhibitors in IBD as well as the potential approaches to optimize treatment with these agents, such as localized delivery or combination therapy, are also discussed.</t>
         </is>
       </c>
       <c r="H19" t="inlineStr"/>
@@ -900,39 +899,76 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Unveiling the Therapeutic Potential: Targeting Fibroblast-like Synoviocytes in Rheumatoid Arthritis.</t>
+          <t>JAK inhibitor: Introduction.</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2025</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Yue S, Fan J, Xie D, Cao C, Wang Z, Huang J, Qiu F, Yang X, He D, Lu A, Liang C</t>
+          <t>Raychaudhuri SP, Raychaudhuri SK</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Expert reviews in molecular medicine</t>
+          <t>Indian journal of dermatology, venereology and leprology</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Expert Rev Mol Med</t>
+          <t>Indian J Dermatol Venereol Leprol</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Rheumatoid arthritis (RA) is a systemic autoimmune disease characterized by chronic inflammation of the synovial membrane, leading to cartilage destruction and bone erosion. Due to the complex pathogenesis of RA and the limitations of current therapies, increasing research attention has been directed towards novel strategies targeting fibroblast-like synoviocytes (FLS), which are key cellular components of the hyperplastic pannus. Recent studies have highlighted the pivotal role of FLS in the initiation and progression of RA, driven by their tumour-like transformation and the secretion of pro-inflammatory mediators, including cytokines, chemokines and matrix metalloproteinases. The aggressive phenotype of RA-FLS is marked by excessive proliferation, resistance to apoptosis, and enhanced migratory and invasive capacities. Consequently, FLS-targeted therapies represent a promising avenue for the development of next-generation RA treatments. The efficacy of such strategies - particularly those aimed at modulating FLS signalling pathways - has been demonstrated in both preclinical and clinical settings, underscoring their therapeutic potential. This review provides an updated overview of the pathogenic mechanisms and functional roles of FLS in RA, with a focus on critical signalling pathways under investigation, including Janus kinase/signal transducer and activator of transcription (JAK/STAT), mitogen-activated protein kinase (MAPK), nuclear factor kappa B (NF-κB), Notch and interleukin-1 receptor-associated kinase 4 (IRAK4). In addition, we discuss the emerging understanding of FLS-subset-specific contributions to immunometabolism and explore how computational biology is shaping novel targeted therapeutic strategies. A deeper understanding of the molecular and functional heterogeneity of FLS may pave the way for more effective and precise therapeutic interventions in RA.</t>
+          <t>The Janus kinase (JAK)-signal transducer and activator of transcription (STAT) pathway is a key regulatory signaling system for cellular proliferation, differentiation, and apoptosis. In addition, JAK signaling pathway plays critical roles in orchestrating immune response through its interactions with the cytokine receptors and the transcriptions factors. Several key cytokines use JAK-STAT signaling proteins to transduce intra-cellular signals which are involved in the pathogenesis of autoimmune and inflammatory diseases such as in psoriatic disease (psoriasis, psoriatic arthritis), atopic dermatitis, alopecia areata, vitiligo, rheumatoid arthritis, ankylosing spondylitis, lupus erythematosus, Sjogren's syndrome, and other autoimmune diseases. In recent years, understandings of the molecular mechanisms of JAK-STAT pathway in the inflammatory proliferative cascades of autoimmune diseases has led to the development of JAK inhibitors and has opened a new dimension for the treatment of systemic and cutaneous inflammatory diseases. In this symposium we have provided a broad perspective on the use of Janus kinase inhibitors in cutaneous autoimmune diseases.</t>
         </is>
       </c>
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
     </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>10</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>The JAK-STAT pathway: impact on human disease and therapeutic intervention.</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>2015</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>O'Shea JJ, Schwartz DM, Villarino AV, Gadina M, McInnes IB, Laurence A</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Annual review of medicine</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Annu Rev Med</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>The Janus kinase (JAK)-signal transducer of activators of transcription (STAT) pathway is now recognized as an evolutionarily conserved signaling pathway employed by diverse cytokines, interferons, growth factors, and related molecules. This pathway provides an elegant and remarkably straightforward mechanism whereby extracellular factors control gene expression. It thus serves as a fundamental paradigm for how cells sense environmental cues and interpret these signals to regulate cell growth and differentiation. Genetic mutations and polymorphisms are functionally relevant to a variety of human diseases, especially cancer and immune-related conditions. The clinical relevance of the pathway has been confirmed by the emergence of a new class of therapeutics that targets JAKs.</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A11:I20"/>
+  <autoFilter ref="A11:I21"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>